--- a/mapping/CLAIM_archetype_mapping.xlsx
+++ b/mapping/CLAIM_archetype_mapping.xlsx
@@ -16,11 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
-  <si>
-    <t>Medication</t>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
   <si>
     <t>item name</t>
     <phoneticPr fontId="1"/>
@@ -54,19 +50,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/content[openEHR-EHR-SECTION.medication_order_list.v1]/items[openEHR-EHR-INSTRUCTION.medication_order.v1 and name/value='Medication order']/activities[at0001]/description[at0002]/items[at0003]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>/content[openEHR-EHR-SECTION.medication_order_list.v1]/items[openEHR-EHR-INSTRUCTION.medication_order.v1 and name/value='Medication order']/activities[at0001]/description[at0002]/items[at0003]/value/defining_code/code_string</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.medication_order_list.v1]/items[openEHR-EHR-INSTRUCTION.medication_order.v1 and name/value='Medication order']/activities[at0001]/description[at0002]/items[at0003]/value/defining_code/terminology_id/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>claim:terminology_id</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -92,33 +76,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/content[openEHR-EHR-SECTION.medication_order_list.v1]/items[openEHR-EHR-INSTRUCTION.medication_order.v1 and name/value='Medication order']/activities[at0001]/description[at0002]/items[at0009]</t>
-  </si>
-  <si>
     <t>claim:admMemo</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>overall directions</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>additional instruction</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.medication_order_list.v1]/items[openEHR-EHR-INSTRUCTION.medication_order.v1 and name/value='Medication order']/activities[at0001]/description[at0002]/items[at0044 and name/value='Additional instruction']</t>
-  </si>
-  <si>
     <t>claim:name</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>claim:number</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Amount</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -164,48 +130,8 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/content[openEHR-EHR-SECTION.medication_order_list.v1]/items[openEHR-EHR-INSTRUCTION.medication_order.v1 and name/value='Medication order']/activities[at0001]/description[at0002]/items[openEHR-EHR-CLUSTER.medication_amount.v1]/items[at0001]</t>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.medication_order_list.v1]/items[openEHR-EHR-INSTRUCTION.medication_order.v1 and name/value='Medication order']/activities[at0001]/description[at0002]/items[openEHR-EHR-CLUSTER.medication_amount.v1]/items[at0002]</t>
-  </si>
-  <si>
-    <t>PRN</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.medication_order_list.v1]/items[openEHR-EHR-INSTRUCTION.medication_order.v1 and name/value='Medication order']/activities[at0001]/description[at0002]/items[at0010]/items[at0029]</t>
-  </si>
-  <si>
-    <t>頓服の場合はtrue、他はfalse</t>
-    <rPh sb="0" eb="2">
-      <t>トンプク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ホカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>claim:bundleNumber</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>numbers of administration</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.medication_order_list.v1]/items[openEHR-EHR-INSTRUCTION.medication_order.v1 and name/value='Medication order']/activities[at0001]/description[at0002]/items[at0010]/items[at0015]</t>
-  </si>
-  <si>
-    <t>Duration of treatment</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.medication_order_list.v1]/items[openEHR-EHR-INSTRUCTION.medication_order.v1 and name/value='Medication order']/activities[at0001]/description[at0002]/items[at0010]/items[at0014]</t>
   </si>
   <si>
     <t>内服の場合は右記にマッピング(記載が無いものは１）</t>
@@ -261,13 +187,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Start date</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.medication_order_list.v1]/items[openEHR-EHR-INSTRUCTION.medication_order.v1 and name/value='Medication order']/activities[at0001]/description[at0002]/items[at0010]/items[at0012]</t>
-  </si>
-  <si>
     <t>210であれば内服、220であれば頓服、230であれば外用と解釈する</t>
     <rPh sb="7" eb="9">
       <t>ナイフク</t>
@@ -282,6 +201,71 @@
       <t>カイシャク</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Date(time) of first administration</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.medications.v1]/items[openEHR-EHR-INSTRUCTION.medication.v1]/activities[at0001 and name/value='Medication activity']/description[openEHR-EHR-ITEM_TREE.medication.v1]/items[at0018]/items[at0019]</t>
+  </si>
+  <si>
+    <t>Dose duratoin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.medications.v1]/items[openEHR-EHR-INSTRUCTION.medication.v1]/activities[at0001 and name/value='Medication activity']/description[openEHR-EHR-ITEM_TREE.medication.v1]/items[at0007]</t>
+  </si>
+  <si>
+    <t>Dose instruction</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.medications.v1]/items[openEHR-EHR-INSTRUCTION.medication.v1]/activities[at0001 and name/value='Medication activity']/description[openEHR-EHR-ITEM_TREE.medication.v1]/items[at0074]</t>
+  </si>
+  <si>
+    <t>Safety limits/Administration instructions</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.medications.v1]/items[openEHR-EHR-INSTRUCTION.medication.v1]/activities[at0001 and name/value='Medication activity']/description[openEHR-EHR-ITEM_TREE.medication.v1]/items[at0013]/items[at0002]</t>
+  </si>
+  <si>
+    <t>number of fraction</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.medications.v1]/items[openEHR-EHR-INSTRUCTION.medication.v1]/activities[at0001 and name/value='Medication activity']/description[openEHR-EHR-ITEM_TREE.medication.v1]/items[at0033]/items[at0034]/items[at0005]</t>
+  </si>
+  <si>
+    <t>Name of medication</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>claim:terminologyId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>claim:location</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Name of medication</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.medications.v1]/items[openEHR-EHR-INSTRUCTION.medication.v1]/activities[at0001 and name/value='Medication activity']/description[openEHR-EHR-ITEM_TREE.medication.v1]/items[at0001]</t>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.medications.v1]/items[openEHR-EHR-INSTRUCTION.medication.v1]/activities[at0001 and name/value='Medication activity']/description[openEHR-EHR-ITEM_TREE.medication.v1]/items[at0001]/term_mappings/target/code_string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.medications.v1]/items[openEHR-EHR-INSTRUCTION.medication.v1]/activities[at0001 and name/value='Medication activity']/description[openEHR-EHR-ITEM_TREE.medication.v1]/items[at0001]/term_mappings/target/terminology_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.medications.v1]/items[openEHR-EHR-INSTRUCTION.medication.v1]/activities[at0001 and name/value='Medication activity']/description[openEHR-EHR-ITEM_TREE.medication.v1]/items[at0006]</t>
   </si>
 </sst>
 </file>
@@ -646,8 +630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -661,99 +645,99 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C10" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
         <v>34</v>
@@ -764,7 +748,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C11" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
         <v>34</v>
@@ -775,84 +759,75 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B14" t="s">
+      <c r="A14" t="s">
         <v>4</v>
-      </c>
-      <c r="D14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="E15" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>22</v>
+      <c r="B16" t="s">
+        <v>37</v>
       </c>
       <c r="D16" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="E16" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E17" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E18" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C19" t="s">
-        <v>32</v>
+      <c r="A19" t="s">
+        <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/mapping/CLAIM_archetype_mapping.xlsx
+++ b/mapping/CLAIM_archetype_mapping.xlsx
@@ -631,7 +631,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/mapping/CLAIM_archetype_mapping.xlsx
+++ b/mapping/CLAIM_archetype_mapping.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="77">
   <si>
     <t>item name</t>
     <phoneticPr fontId="1"/>
@@ -47,10 +47,6 @@
   </si>
   <si>
     <t>mml_prescription templete</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.medication_order_list.v1]/items[openEHR-EHR-INSTRUCTION.medication_order.v1 and name/value='Medication order']/activities[at0001]/description[at0002]/items[at0003]/value/defining_code/code_string</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -126,10 +122,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Dose unit</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>claim:bundleNumber</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -203,69 +195,248 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Date(time) of first administration</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.medications.v1]/items[openEHR-EHR-INSTRUCTION.medication.v1]/activities[at0001 and name/value='Medication activity']/description[openEHR-EHR-ITEM_TREE.medication.v1]/items[at0018]/items[at0019]</t>
-  </si>
-  <si>
-    <t>Dose duratoin</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.medications.v1]/items[openEHR-EHR-INSTRUCTION.medication.v1]/activities[at0001 and name/value='Medication activity']/description[openEHR-EHR-ITEM_TREE.medication.v1]/items[at0007]</t>
-  </si>
-  <si>
-    <t>Dose instruction</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.medications.v1]/items[openEHR-EHR-INSTRUCTION.medication.v1]/activities[at0001 and name/value='Medication activity']/description[openEHR-EHR-ITEM_TREE.medication.v1]/items[at0074]</t>
-  </si>
-  <si>
-    <t>Safety limits/Administration instructions</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.medications.v1]/items[openEHR-EHR-INSTRUCTION.medication.v1]/activities[at0001 and name/value='Medication activity']/description[openEHR-EHR-ITEM_TREE.medication.v1]/items[at0013]/items[at0002]</t>
-  </si>
-  <si>
-    <t>number of fraction</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.medications.v1]/items[openEHR-EHR-INSTRUCTION.medication.v1]/activities[at0001 and name/value='Medication activity']/description[openEHR-EHR-ITEM_TREE.medication.v1]/items[at0033]/items[at0034]/items[at0005]</t>
-  </si>
-  <si>
-    <t>Name of medication</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>claim:terminologyId</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>claim:location</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Name of medication</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.medications.v1]/items[openEHR-EHR-INSTRUCTION.medication.v1]/activities[at0001 and name/value='Medication activity']/description[openEHR-EHR-ITEM_TREE.medication.v1]/items[at0001]</t>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.medications.v1]/items[openEHR-EHR-INSTRUCTION.medication.v1]/activities[at0001 and name/value='Medication activity']/description[openEHR-EHR-ITEM_TREE.medication.v1]/items[at0001]/term_mappings/target/code_string</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.medications.v1]/items[openEHR-EHR-INSTRUCTION.medication.v1]/activities[at0001 and name/value='Medication activity']/description[openEHR-EHR-ITEM_TREE.medication.v1]/items[at0001]/term_mappings/target/terminology_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.medications.v1]/items[openEHR-EHR-INSTRUCTION.medication.v1]/activities[at0001 and name/value='Medication activity']/description[openEHR-EHR-ITEM_TREE.medication.v1]/items[at0006]</t>
+    <t>Overall direction</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>data type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_TEXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-INSTRUCTION.medication_order.v1 and name/value='Medication order']/activities[at0001]/description[at0002]/items[at0009]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Comment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_TEXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-INSTRUCTION.medication_order.v1 and name/value='Medication order']/activities[at0001]/description[at0002]/items[at0035 and name/value='Comment']/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>start date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-INSTRUCTION.medication_order.v1 and name/value='Medication order']/activities[at0001]/description[at0002]/items[at0010]/items[at0012]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_DATE_TIME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Duration of treatment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_DURATION</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-INSTRUCTION.medication_order.v1 and name/value='Medication order']/activities[at0001]/description[at0002]/items[at0010]/items[at0014]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Number of administrations</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_COUNT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-INSTRUCTION.medication_order.v1 and name/value='Medication order']/activities[at0001]/description[at0002]/items[at0010]/items[at0015]/magnitude</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-INSTRUCTION.medication_order.v1 and name/value='Medication order']/activities[at0001]/description[at0002]/items[openEHR-EHR-CLUSTER.medication_admin.v1 and name/value='Medication administration']/items[at0002]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_CODED_TEXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-INSTRUCTION.medication_order.v1 and name/value='Medication order']/activities[at0001]/description[at0002]/items[at0003]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>claim:tableId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Medicine</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-INSTRUCTION.medication_order.v1 and name/value='Medication order']/activities[at0001]/description[at0002]/items[at0003]/defining_code/terminology_id/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-INSTRUCTION.medication_order.v1 and name/value='Medication order']/activities[at0001]/description[at0002]/items[at0003]/defining_code/code_string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Medication Administration/Site</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Medicaltion amount/Amount</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_AMOUNT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-INSTRUCTION.medication_order.v1 and name/value='Medication order']/activities[at0001]/description[at0002]/items[openEHR-EHR-CLUSTER.medication_amount.v1]/items[at0001]/magnitude</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Medication amount/dose unit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-INSTRUCTION.medication_order.v1 and name/value='Medication order']/activities[at0001]/description[at0002]/items[openEHR-EHR-CLUSTER.medication_amount.v1]/items[at0002]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内服処方箋</t>
+    <rPh sb="0" eb="2">
+      <t>ナイフク</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ショホウセン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>注射</t>
+    <rPh sb="0" eb="2">
+      <t>チュウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>claim:performTime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>310であれば皮下筋注、320であれば静注、330であればその他</t>
+    <rPh sb="7" eb="9">
+      <t>ヒカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キンチュウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジョウチュウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Instructions</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-ACTION.medication.v1 and name/value='Medication action']/description[at0017]/items[at0033 and name/value='Instructions']/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-ACTION.medication.v1 and name/value='Medication action']/time/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-ACTION.medication.v1 and name/value='Medication action']/description[at0017]/items[at0024]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_QUANTITY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-ACTION.medication.v1 and name/value='Medication action']/description[at0017]/items[openEHR-EHR-CLUSTER.medication_admin.v1 and name/value='Medication administration']/items[at0002]</t>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-ACTION.medication.v1 and name/value='Medication action']/protocol[at0030]/items[at0037]/magnitude</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>number of times dispensed</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-ACTION.medication.v1 and name/value='Medication action']/description[at0017]/items[at0020]/defining_code/code_string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-ACTION.medication.v1 and name/value='Medication action']/description[at0017]/items[at0020]/defining_code/terminology_id/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-ACTION.medication.v1 and name/value='Medication action']/description[at0017]/items[at0020]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-ACTION.medication.v1 and name/value='Medication action']/description[at0017]/items[openEHR-EHR-CLUSTER.medication_amount.v1]/items[at0001]/magnitude</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-ACTION.medication.v1 and name/value='Medication action']/description[at0017]/items[openEHR-EHR-CLUSTER.medication_amount.v1]/items[at0002]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Medication Administration/Delivery method</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_TEXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-ACTION.medication.v1 and name/value='Medication action']/description[at0017]/items[openEHR-EHR-CLUSTER.medication_admin.v1 and name/value='Medication administration']/items[at0003]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>皮下注であれば"sc"</t>
+    <rPh sb="0" eb="2">
+      <t>ヒカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>静注であれば"iv"</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他は"other"</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -628,10 +799,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30:F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -640,18 +811,22 @@
     <col min="2" max="2" width="17.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="49.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.25" customWidth="1"/>
+    <col min="6" max="6" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>2</v>
       </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
       <c r="D1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -659,175 +834,436 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="D13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" t="s">
         <v>30</v>
       </c>
-      <c r="E7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="E12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
         <v>3</v>
       </c>
       <c r="D15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C28" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" t="s">
+        <v>72</v>
+      </c>
+      <c r="F28" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C29" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" t="s">
+        <v>72</v>
+      </c>
+      <c r="F29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C30" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" t="s">
+        <v>72</v>
+      </c>
+      <c r="F30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" t="s">
         <v>39</v>
       </c>
-      <c r="E15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="F34" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" t="s">
+        <v>48</v>
+      </c>
+      <c r="E35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
+      <c r="F37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B38" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" t="s">
+        <v>45</v>
+      </c>
+      <c r="F38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" t="s">
+        <v>45</v>
+      </c>
+      <c r="F39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
         <v>14</v>
       </c>
-      <c r="D17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="D40" t="s">
+        <v>49</v>
+      </c>
+      <c r="E40" t="s">
+        <v>50</v>
+      </c>
+      <c r="F40" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
         <v>16</v>
       </c>
-      <c r="D18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" t="s">
-        <v>43</v>
+      <c r="D41" t="s">
+        <v>52</v>
+      </c>
+      <c r="E41" t="s">
+        <v>42</v>
+      </c>
+      <c r="F41" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
